--- a/Execute/Data/X_file/girl 프레임 정보.xlsx
+++ b/Execute/Data/X_file/girl 프레임 정보.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,49 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>notepad</t>
+    <t>Sprint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>partyboy</t>
+    <t>Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>walk_girl</t>
+    <t>Talk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fenceleaning</t>
+    <t>Talk2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idle_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wallleaning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoofSitting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kick</t>
+    <t>Talk3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -426,11 +402,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>95</v>
+        <v>1523</v>
       </c>
       <c r="C1">
-        <f>SUM($B$1:B1)</f>
-        <v>95</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -438,11 +413,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>1544</v>
       </c>
       <c r="C2">
-        <f>SUM($B$1:B2)</f>
-        <v>136</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -450,11 +424,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>1620</v>
       </c>
       <c r="C3">
-        <f>SUM($B$1:B3)</f>
-        <v>167</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -462,11 +435,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>1697</v>
       </c>
       <c r="C4">
-        <f>SUM($B$1:B4)</f>
-        <v>257</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,81 +446,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>1956</v>
       </c>
       <c r="C5">
-        <f>SUM($B$1:B5)</f>
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>427</v>
-      </c>
-      <c r="C6">
-        <f>SUM($B$1:B6)</f>
-        <v>773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>90</v>
-      </c>
-      <c r="C7">
-        <f>SUM($B$1:B7)</f>
-        <v>863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>90</v>
-      </c>
-      <c r="C8">
-        <f>SUM($B$1:B8)</f>
-        <v>953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>90</v>
-      </c>
-      <c r="C9">
-        <f>SUM($B$1:B9)</f>
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1523</v>
-      </c>
-      <c r="C10">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3212</v>
-      </c>
-      <c r="C11">
-        <v>3241</v>
+        <v>2067</v>
       </c>
     </row>
   </sheetData>
